--- a/Caculate Soft/OutputFiles/Performance Of Machine 3-2022.xlsx
+++ b/Caculate Soft/OutputFiles/Performance Of Machine 3-2022.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,37 +509,37 @@
         <v>44620</v>
       </c>
       <c r="B2" t="n">
-        <v>15.03</v>
+        <v>0.134</v>
       </c>
       <c r="C2" t="n">
-        <v>0.28</v>
+        <v>0.001</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>0.364</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0.976</v>
       </c>
       <c r="F2" t="n">
-        <v>90.34</v>
+        <v>0.45</v>
       </c>
       <c r="G2" t="n">
-        <v>39.49</v>
+        <v>0.159</v>
       </c>
       <c r="H2" t="n">
-        <v>86.18000000000001</v>
+        <v>0.587</v>
       </c>
       <c r="I2" t="n">
-        <v>54.05</v>
+        <v>0.223</v>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>24.02</v>
+        <v>0.252</v>
       </c>
       <c r="L2" t="n">
-        <v>100</v>
+        <v>0.603</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -550,40 +550,40 @@
         <v>44621</v>
       </c>
       <c r="B3" t="n">
-        <v>9.380000000000001</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>0.29</v>
+        <v>0.002</v>
       </c>
       <c r="D3" t="n">
-        <v>100</v>
+        <v>0.534</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>0.595</v>
       </c>
       <c r="F3" t="n">
-        <v>76.69</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>84.95999999999999</v>
+        <v>0.845</v>
       </c>
       <c r="H3" t="n">
-        <v>72.13</v>
+        <v>0.71</v>
       </c>
       <c r="I3" t="n">
-        <v>79.7</v>
+        <v>0.779</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>0.893</v>
       </c>
       <c r="K3" t="n">
-        <v>10.95</v>
+        <v>0.115</v>
       </c>
       <c r="L3" t="n">
-        <v>100</v>
+        <v>0.644</v>
       </c>
       <c r="M3" t="n">
-        <v>76.18000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -591,40 +591,40 @@
         <v>44622</v>
       </c>
       <c r="B4" t="n">
-        <v>16.15</v>
+        <v>0.125</v>
       </c>
       <c r="C4" t="n">
-        <v>59.88</v>
+        <v>0.226</v>
       </c>
       <c r="D4" t="n">
-        <v>100</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>100</v>
+        <v>0.695</v>
       </c>
       <c r="F4" t="n">
-        <v>85.73</v>
+        <v>0.827</v>
       </c>
       <c r="G4" t="n">
-        <v>83.02</v>
+        <v>0.828</v>
       </c>
       <c r="H4" t="n">
-        <v>76.48999999999999</v>
+        <v>0.501</v>
       </c>
       <c r="I4" t="n">
-        <v>82.66</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>0.655</v>
       </c>
       <c r="K4" t="n">
-        <v>20.59</v>
+        <v>0.23</v>
       </c>
       <c r="L4" t="n">
-        <v>100</v>
+        <v>0.604</v>
       </c>
       <c r="M4" t="n">
-        <v>83.11</v>
+        <v>0.796</v>
       </c>
     </row>
     <row r="5">
@@ -632,40 +632,40 @@
         <v>44623</v>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>0.033</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.93</v>
+        <v>0.005</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>0.895</v>
       </c>
       <c r="F5" t="n">
-        <v>81.72</v>
+        <v>0.784</v>
       </c>
       <c r="G5" t="n">
-        <v>80.37</v>
+        <v>0.803</v>
       </c>
       <c r="H5" t="n">
-        <v>57.72</v>
+        <v>0.575</v>
       </c>
       <c r="I5" t="n">
-        <v>81.62</v>
+        <v>0.793</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>0.967</v>
       </c>
       <c r="K5" t="n">
-        <v>23.67</v>
+        <v>0.337</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>79.56</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="6">
@@ -673,40 +673,40 @@
         <v>44624</v>
       </c>
       <c r="B6" t="n">
-        <v>74.20999999999999</v>
+        <v>0.261</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>53.62</v>
+        <v>0.154</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>0.969</v>
       </c>
       <c r="F6" t="n">
-        <v>82.93000000000001</v>
+        <v>0.854</v>
       </c>
       <c r="G6" t="n">
-        <v>78.65000000000001</v>
+        <v>0.784</v>
       </c>
       <c r="H6" t="n">
-        <v>32.41</v>
+        <v>0.323</v>
       </c>
       <c r="I6" t="n">
-        <v>69.61</v>
+        <v>0.679</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>0.995</v>
       </c>
       <c r="K6" t="n">
-        <v>26.37</v>
+        <v>0.349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>80.2</v>
+        <v>0.653</v>
       </c>
     </row>
     <row r="7">
@@ -726,22 +726,22 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>0.878</v>
       </c>
       <c r="G7" t="n">
-        <v>94.03</v>
+        <v>0.184</v>
       </c>
       <c r="H7" t="n">
-        <v>45.52</v>
+        <v>0.453</v>
       </c>
       <c r="I7" t="n">
-        <v>73.25</v>
+        <v>0.176</v>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>0.994</v>
       </c>
       <c r="K7" t="n">
-        <v>44.52</v>
+        <v>0.447</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>100</v>
+        <v>0.318</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -773,16 +773,16 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>84.42</v>
+        <v>0.479</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>54.17</v>
+        <v>0.546</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -796,37 +796,37 @@
         <v>44627</v>
       </c>
       <c r="B9" t="n">
-        <v>65.77</v>
+        <v>0.36</v>
       </c>
       <c r="C9" t="n">
-        <v>100</v>
+        <v>0.164</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>100</v>
+        <v>0.555</v>
       </c>
       <c r="F9" t="n">
-        <v>80.87</v>
+        <v>0.06</v>
       </c>
       <c r="G9" t="n">
-        <v>83.23</v>
+        <v>0.541</v>
       </c>
       <c r="H9" t="n">
-        <v>86.23</v>
+        <v>0.586</v>
       </c>
       <c r="I9" t="n">
-        <v>76.62</v>
+        <v>0.462</v>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>0.743</v>
       </c>
       <c r="K9" t="n">
-        <v>31.81</v>
+        <v>0.34</v>
       </c>
       <c r="L9" t="n">
-        <v>100</v>
+        <v>0.375</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -837,37 +837,37 @@
         <v>44628</v>
       </c>
       <c r="B10" t="n">
-        <v>15.19</v>
+        <v>0.152</v>
       </c>
       <c r="C10" t="n">
-        <v>0.13</v>
+        <v>0.001</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>0.833</v>
       </c>
       <c r="F10" t="n">
-        <v>100</v>
+        <v>0.026</v>
       </c>
       <c r="G10" t="n">
-        <v>88.54000000000001</v>
+        <v>0.659</v>
       </c>
       <c r="H10" t="n">
-        <v>76.88</v>
+        <v>0.745</v>
       </c>
       <c r="I10" t="n">
-        <v>86.42</v>
+        <v>0.635</v>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>0.983</v>
       </c>
       <c r="K10" t="n">
-        <v>14.31</v>
+        <v>0.164</v>
       </c>
       <c r="L10" t="n">
-        <v>100</v>
+        <v>0.636</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -878,40 +878,40 @@
         <v>44629</v>
       </c>
       <c r="B11" t="n">
-        <v>19.85</v>
+        <v>0.129</v>
       </c>
       <c r="C11" t="n">
-        <v>0.25</v>
+        <v>0.001</v>
       </c>
       <c r="D11" t="n">
-        <v>94.17</v>
+        <v>0.595</v>
       </c>
       <c r="E11" t="n">
-        <v>100</v>
+        <v>0.869</v>
       </c>
       <c r="F11" t="n">
-        <v>90.03</v>
+        <v>0.37</v>
       </c>
       <c r="G11" t="n">
-        <v>80.01000000000001</v>
+        <v>0.798</v>
       </c>
       <c r="H11" t="n">
-        <v>67.88</v>
+        <v>0.66</v>
       </c>
       <c r="I11" t="n">
-        <v>81.5</v>
+        <v>0.768</v>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>0.984</v>
       </c>
       <c r="K11" t="n">
-        <v>12.38</v>
+        <v>0.131</v>
       </c>
       <c r="L11" t="n">
-        <v>100</v>
+        <v>0.647</v>
       </c>
       <c r="M11" t="n">
-        <v>84.95999999999999</v>
+        <v>0.503</v>
       </c>
     </row>
     <row r="12">
@@ -919,40 +919,40 @@
         <v>44630</v>
       </c>
       <c r="B12" t="n">
-        <v>9.42</v>
+        <v>0.114</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>100</v>
+        <v>0.537</v>
       </c>
       <c r="E12" t="n">
-        <v>100</v>
+        <v>0.89</v>
       </c>
       <c r="F12" t="n">
-        <v>84.01000000000001</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>69.62</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>79.65000000000001</v>
+        <v>0.793</v>
       </c>
       <c r="I12" t="n">
-        <v>80.76000000000001</v>
+        <v>0.742</v>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>0.995</v>
       </c>
       <c r="K12" t="n">
-        <v>10.4</v>
+        <v>0.115</v>
       </c>
       <c r="L12" t="n">
-        <v>100</v>
+        <v>0.614</v>
       </c>
       <c r="M12" t="n">
-        <v>80.05</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="13">
@@ -960,40 +960,40 @@
         <v>44631</v>
       </c>
       <c r="B13" t="n">
-        <v>78.26000000000001</v>
+        <v>0.467</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100</v>
+        <v>0.513</v>
       </c>
       <c r="E13" t="n">
-        <v>100</v>
+        <v>0.966</v>
       </c>
       <c r="F13" t="n">
-        <v>87.72</v>
+        <v>0.2</v>
       </c>
       <c r="G13" t="n">
-        <v>91.2</v>
+        <v>0.898</v>
       </c>
       <c r="H13" t="n">
-        <v>60.62</v>
+        <v>0.604</v>
       </c>
       <c r="I13" t="n">
-        <v>82.64</v>
+        <v>0.822</v>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
+        <v>0.996</v>
       </c>
       <c r="K13" t="n">
-        <v>10.91</v>
+        <v>0.126</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>84.58</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="14">
@@ -1019,16 +1019,16 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>48.7</v>
+        <v>0.135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
+        <v>0.415</v>
       </c>
       <c r="K14" t="n">
-        <v>35.88</v>
+        <v>0.409</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1042,7 +1042,7 @@
         <v>44634</v>
       </c>
       <c r="B15" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1051,31 +1051,31 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>100</v>
+        <v>0.67</v>
       </c>
       <c r="F15" t="n">
-        <v>58.51</v>
+        <v>0.31</v>
       </c>
       <c r="G15" t="n">
-        <v>42.58</v>
+        <v>0.295</v>
       </c>
       <c r="H15" t="n">
-        <v>78.34</v>
+        <v>0.465</v>
       </c>
       <c r="I15" t="n">
-        <v>43.41</v>
+        <v>0.271</v>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
+        <v>0.65</v>
       </c>
       <c r="K15" t="n">
-        <v>21.2</v>
+        <v>0.222</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>6.89</v>
+        <v>0.035</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>44635</v>
       </c>
       <c r="B16" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1092,31 +1092,31 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>100</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>96.20999999999999</v>
+        <v>0.923</v>
       </c>
       <c r="G16" t="n">
-        <v>89.65000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="H16" t="n">
-        <v>75.56</v>
+        <v>0.485</v>
       </c>
       <c r="I16" t="n">
-        <v>87.06999999999999</v>
+        <v>0.848</v>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>0.655</v>
       </c>
       <c r="K16" t="n">
-        <v>11.41</v>
+        <v>0.125</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>85.66</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="17">
@@ -1124,7 +1124,7 @@
         <v>44636</v>
       </c>
       <c r="B17" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1133,31 +1133,31 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>100</v>
+        <v>0.158</v>
       </c>
       <c r="F17" t="n">
-        <v>88.13</v>
+        <v>0.866</v>
       </c>
       <c r="G17" t="n">
-        <v>84.06999999999999</v>
+        <v>0.835</v>
       </c>
       <c r="H17" t="n">
-        <v>83.40000000000001</v>
+        <v>0.543</v>
       </c>
       <c r="I17" t="n">
-        <v>92.02</v>
+        <v>0.885</v>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>0.657</v>
       </c>
       <c r="K17" t="n">
-        <v>16.88</v>
+        <v>0.178</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>84.48999999999999</v>
+        <v>0.8169999999999999</v>
       </c>
     </row>
     <row r="18">
@@ -1165,7 +1165,7 @@
         <v>44637</v>
       </c>
       <c r="B18" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1177,28 +1177,28 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>83.15000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="G18" t="n">
-        <v>79.41</v>
+        <v>0.789</v>
       </c>
       <c r="H18" t="n">
-        <v>80.53</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>88.65000000000001</v>
+        <v>0.885</v>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>0.697</v>
       </c>
       <c r="K18" t="n">
-        <v>16.49</v>
+        <v>0.174</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>90.42</v>
+        <v>0.896</v>
       </c>
     </row>
     <row r="19">
@@ -1206,7 +1206,7 @@
         <v>44638</v>
       </c>
       <c r="B19" t="n">
-        <v>37.29</v>
+        <v>0.214</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1215,31 +1215,31 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>100</v>
+        <v>0.454</v>
       </c>
       <c r="F19" t="n">
-        <v>91.12</v>
+        <v>0.871</v>
       </c>
       <c r="G19" t="n">
-        <v>90.16</v>
+        <v>0.876</v>
       </c>
       <c r="H19" t="n">
-        <v>61.68</v>
+        <v>0.606</v>
       </c>
       <c r="I19" t="n">
-        <v>87.14</v>
+        <v>0.87</v>
       </c>
       <c r="J19" t="n">
-        <v>100</v>
+        <v>0.97</v>
       </c>
       <c r="K19" t="n">
-        <v>10.22</v>
+        <v>0.232</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>86.13</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="20">
@@ -1256,31 +1256,31 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>100</v>
+        <v>0.601</v>
       </c>
       <c r="F20" t="n">
-        <v>33.87</v>
+        <v>0.75</v>
       </c>
       <c r="G20" t="n">
-        <v>61.06</v>
+        <v>0.737</v>
       </c>
       <c r="H20" t="n">
-        <v>75.93000000000001</v>
+        <v>0.755</v>
       </c>
       <c r="I20" t="n">
-        <v>81.88</v>
+        <v>0.506</v>
       </c>
       <c r="J20" t="n">
-        <v>100</v>
+        <v>0.99</v>
       </c>
       <c r="K20" t="n">
-        <v>21.23</v>
+        <v>0.22</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>79.92</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="21">
@@ -1288,7 +1288,7 @@
         <v>44640</v>
       </c>
       <c r="B21" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>100</v>
+        <v>0.292</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>95.64</v>
+        <v>0.261</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>100</v>
+        <v>0.735</v>
       </c>
       <c r="K21" t="n">
-        <v>16.77</v>
+        <v>0.169</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1329,34 +1329,34 @@
         <v>44641</v>
       </c>
       <c r="B22" t="n">
-        <v>61.08</v>
+        <v>0.429</v>
       </c>
       <c r="C22" t="n">
-        <v>0.33</v>
+        <v>0.001</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>100</v>
+        <v>0.948</v>
       </c>
       <c r="F22" t="n">
-        <v>61.94</v>
+        <v>0.465</v>
       </c>
       <c r="G22" t="n">
-        <v>80.53</v>
+        <v>0.303</v>
       </c>
       <c r="H22" t="n">
-        <v>82.66</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>77.52</v>
+        <v>0.173</v>
       </c>
       <c r="J22" t="n">
-        <v>100</v>
+        <v>0.668</v>
       </c>
       <c r="K22" t="n">
-        <v>23.84</v>
+        <v>0.269</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>44642</v>
       </c>
       <c r="B23" t="n">
-        <v>13.53</v>
+        <v>0.204</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1379,25 +1379,25 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>100</v>
+        <v>0.97</v>
       </c>
       <c r="F23" t="n">
-        <v>89.44</v>
+        <v>0.628</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>74.34999999999999</v>
+        <v>0.734</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>100</v>
+        <v>0.988</v>
       </c>
       <c r="K23" t="n">
-        <v>16.65</v>
+        <v>0.205</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -1411,7 +1411,7 @@
         <v>44643</v>
       </c>
       <c r="B24" t="n">
-        <v>7.7</v>
+        <v>0.122</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>100</v>
+        <v>0.996</v>
       </c>
       <c r="F24" t="n">
-        <v>74.13</v>
+        <v>0.734</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>78.81999999999999</v>
+        <v>0.749</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>100</v>
+        <v>0.958</v>
       </c>
       <c r="K24" t="n">
-        <v>13.89</v>
+        <v>0.149</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>44644</v>
       </c>
       <c r="B25" t="n">
-        <v>15.31</v>
+        <v>0.213</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1461,31 +1461,31 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>100</v>
+        <v>0.995</v>
       </c>
       <c r="F25" t="n">
-        <v>64.40000000000001</v>
+        <v>0.641</v>
       </c>
       <c r="G25" t="n">
-        <v>94.72</v>
+        <v>0.163</v>
       </c>
       <c r="H25" t="n">
-        <v>86.26000000000001</v>
+        <v>0.862</v>
       </c>
       <c r="I25" t="n">
-        <v>38.99</v>
+        <v>0.31</v>
       </c>
       <c r="J25" t="n">
-        <v>100</v>
+        <v>0.984</v>
       </c>
       <c r="K25" t="n">
-        <v>15.04</v>
+        <v>0.162</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1493,7 +1493,7 @@
         <v>44645</v>
       </c>
       <c r="B26" t="n">
-        <v>16.76</v>
+        <v>0.115</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>100</v>
+        <v>0.989</v>
       </c>
       <c r="F26" t="n">
-        <v>82.38</v>
+        <v>0.486</v>
       </c>
       <c r="G26" t="n">
-        <v>81.14</v>
+        <v>0.478</v>
       </c>
       <c r="H26" t="n">
-        <v>83.11</v>
+        <v>0.521</v>
       </c>
       <c r="I26" t="n">
-        <v>81.67</v>
+        <v>0.515</v>
       </c>
       <c r="J26" t="n">
-        <v>100</v>
+        <v>0.625</v>
       </c>
       <c r="K26" t="n">
-        <v>15.46</v>
+        <v>0.108</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>79.14</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="27">
@@ -1534,34 +1534,34 @@
         <v>44646</v>
       </c>
       <c r="B27" t="n">
-        <v>6.4</v>
+        <v>0.068</v>
       </c>
       <c r="C27" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>48.59</v>
+        <v>0.441</v>
       </c>
       <c r="E27" t="n">
-        <v>100</v>
+        <v>0.984</v>
       </c>
       <c r="F27" t="n">
-        <v>93.34</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>95.92</v>
+        <v>0.002</v>
       </c>
       <c r="H27" t="n">
-        <v>82.70999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>100</v>
+        <v>0.591</v>
       </c>
       <c r="K27" t="n">
-        <v>18.71</v>
+        <v>0.291</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -1575,34 +1575,34 @@
         <v>44647</v>
       </c>
       <c r="B28" t="n">
-        <v>11.41</v>
+        <v>0.119</v>
       </c>
       <c r="C28" t="n">
-        <v>1.37</v>
+        <v>0.001</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>100</v>
+        <v>0.861</v>
       </c>
       <c r="F28" t="n">
-        <v>93.42</v>
+        <v>0.294</v>
       </c>
       <c r="G28" t="n">
-        <v>95.90000000000001</v>
+        <v>0.312</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>82.43000000000001</v>
+        <v>0.265</v>
       </c>
       <c r="J28" t="n">
-        <v>100</v>
+        <v>0.02</v>
       </c>
       <c r="K28" t="n">
-        <v>25.15</v>
+        <v>0.299</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -1616,40 +1616,122 @@
         <v>44648</v>
       </c>
       <c r="B29" t="n">
-        <v>-25.57</v>
+        <v>0.133</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.13</v>
+        <v>0.001</v>
       </c>
       <c r="E29" t="n">
-        <v>100</v>
+        <v>0.984</v>
       </c>
       <c r="F29" t="n">
-        <v>65.05</v>
+        <v>0.614</v>
       </c>
       <c r="G29" t="n">
-        <v>79.81999999999999</v>
+        <v>0.738</v>
       </c>
       <c r="H29" t="n">
-        <v>67.5</v>
+        <v>0.663</v>
       </c>
       <c r="I29" t="n">
-        <v>83.01000000000001</v>
+        <v>0.757</v>
       </c>
       <c r="J29" t="n">
-        <v>100</v>
+        <v>0.992</v>
       </c>
       <c r="K29" t="n">
-        <v>20.5</v>
+        <v>0.215</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44649</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.906</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.657</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.984</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.773</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.737</v>
       </c>
     </row>
   </sheetData>
